--- a/aplicacao/registrar.xlsx
+++ b/aplicacao/registrar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\automatizacao_de_processo_com_python\aplicacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Serial</t>
-  </si>
-  <si>
-    <t>123testeregistro</t>
   </si>
 </sst>
 </file>
@@ -357,7 +354,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -373,9 +370,6 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5">
